--- a/Sku - Examples.xlsx
+++ b/Sku - Examples.xlsx
@@ -419,6 +419,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,9 +444,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,30 +775,30 @@
       <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="18"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="str">
@@ -937,13 +937,13 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="str">
         <f>CONCATENATE(B4,C4,D4,E4,F4,G4,H4)</f>
-        <v>KRL3512425023752</v>
+        <v>KRL1012425023752</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="9">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9">
         <f>$N$4</f>
@@ -1123,14 +1123,13 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>LCO4312405023355</v>
+        <v>LCO1012405023355</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6">
         <f>$N$4</f>
@@ -1290,13 +1289,13 @@
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ADI5012435123450</v>
+        <v>ADI1012435123450</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D10" s="9">
         <f>$N$4</f>
@@ -1412,13 +1411,13 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CNL3712435123456</v>
+        <v>CNL1012435123456</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="17">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D13" s="17">
         <f>$N$4</f>
@@ -1448,7 +1447,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ref="C14:C20" si="2">L17</f>
+        <f t="shared" ref="C14:C17" si="2">L17</f>
         <v>0</v>
       </c>
       <c r="D14" s="9">
@@ -1506,14 +1505,13 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>RVP012425023251</v>
+        <v>RVP1012425023251</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="9">
-        <f>L19</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="9">
         <f>$N$4</f>
@@ -1599,13 +1597,13 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>HRS5212415023454</v>
+        <v>HRS1012415023454</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="17">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D19" s="17">
         <f>$N$4</f>
@@ -1617,7 +1615,7 @@
       <c r="F19" s="17">
         <v>50</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="18">
         <v>234</v>
       </c>
       <c r="H19" s="17">
